--- a/tabla3.xlsx
+++ b/tabla3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DevUser\Desktop\GeneradorReporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E792E7-EC46-4DEC-98F5-86131F698427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014F50FB-4F8E-43A6-B404-AAD59961B783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,41 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,62 +372,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
